--- a/函数说明.xlsx
+++ b/函数说明.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="8655"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
   <si>
     <t>帮助模块</t>
   </si>
@@ -605,10 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指令汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指定一个文件作为读入文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,6 +617,26 @@
   </si>
   <si>
     <t>矩阵中元素向下取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用词法分析器和语法分析器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意用数学方法进行优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令汇总 20条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,11 +702,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -975,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1044,6 +1058,9 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1058,6 +1075,9 @@
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -1066,6 +1086,9 @@
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1074,6 +1097,9 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -1082,6 +1108,9 @@
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -1090,6 +1119,9 @@
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1098,6 +1130,9 @@
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1106,6 +1141,9 @@
       <c r="B15" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1114,6 +1152,9 @@
       <c r="B16" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
@@ -1122,6 +1163,9 @@
       <c r="B17" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
@@ -1130,6 +1174,9 @@
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -1138,6 +1185,9 @@
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1146,6 +1196,9 @@
       <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -1154,6 +1207,9 @@
       <c r="B21" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
@@ -1162,6 +1218,9 @@
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
@@ -1170,6 +1229,9 @@
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
@@ -1178,6 +1240,9 @@
       <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -1186,6 +1251,9 @@
       <c r="B25" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -1194,6 +1262,9 @@
       <c r="B26" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
@@ -1202,6 +1273,9 @@
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -1210,6 +1284,9 @@
       <c r="B28" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -1218,6 +1295,9 @@
       <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1243,50 +1323,56 @@
       <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
@@ -1294,7 +1380,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -1302,7 +1388,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
@@ -1310,7 +1396,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -1318,7 +1404,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -1326,7 +1412,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>64</v>
       </c>
@@ -1334,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>65</v>
       </c>
@@ -1342,17 +1428,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>35</v>
@@ -1360,7 +1446,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>37</v>
@@ -1371,7 +1457,7 @@
         <v>67</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">

--- a/函数说明.xlsx
+++ b/函数说明.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
-  <si>
-    <t>帮助模块</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="163">
   <si>
     <t>函数功能</t>
   </si>
@@ -25,9 +22,6 @@
     <t>函数处理说明</t>
   </si>
   <si>
-    <t>strcmp，若没有，调用错误模块#</t>
-  </si>
-  <si>
     <t>case+default</t>
   </si>
   <si>
@@ -56,10 +50,6 @@
   </si>
   <si>
     <t>输入输出</t>
-  </si>
-  <si>
-    <t>矩阵的加法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>矩阵的减法</t>
@@ -226,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>矩阵中的数值和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>矩阵中数值的最大值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>矩阵的秩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>void rref（char* matrix_name）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,10 +332,6 @@
     <t xml:space="preserve">writeto </t>
   </si>
   <si>
-    <t>指定一个文件作为输出文件,若不跟文件名则表示指定屏幕为输出终端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,19 +340,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建零矩阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zeros</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>eye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立单位矩阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -445,13 +415,6 @@
   <si>
     <t>^</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算矩阵的幂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>reverse</t>
@@ -600,10 +563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指定一个文件作为读入文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>矩阵中数值的最小值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -637,6 +596,267 @@
   </si>
   <si>
     <t>指令汇总 20条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的行最简形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>指令（操作数…)或指令 操作数，而且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作数可以为复杂表达式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空格和换行可能有多个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令不区分大小写，操作数区分大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标点全为英文标点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分号抑制输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何时候，指定一个文件作为读入文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定一个文件作为以附加形式输出的输出文件,若不跟文件名则表示指定屏幕为输出终端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ans存放最后一条指令的返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵标识符符合C语言标识符规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建矩阵时同一行的数据用空格和逗号分隔，不同行用分号隔开，或回车换行符，等号两边可以有空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建零矩阵，有一个或两个参数，可以直接将ans变成相应0矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立单位矩阵，有一个参数，可以直接将ans变成相应单位矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatA（N,M)（不是命令）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似获得MatA矩阵n行m列的元素地址，既可以得到值，又可以被赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵中的所有数值的和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常数和常数，矩阵和矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常数和常数，常数和矩阵，矩阵和矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常数和常数，矩阵除以常数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算矩阵的幂，次数为整数，^两端可能有空格，矩阵名后有.表示对各元素求幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的转置，'与矩阵名间没有空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的行列式，返回的是数而不是1*1的矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的秩，返回的是数而不是1*1的矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常数和常数，矩阵除以常数,矩阵和矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运算中允许以ans与[data]作为操作数，但[data]中不能换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void mergelr（char* matrix_name1, char* matrix_name2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void mergeud (char* matrix_name1, char* matrix_name2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理矩阵嵌套定义，左右合并成大矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理矩阵嵌套定义，上下合并成大矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出错处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strcmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有对应帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有对应错误代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种词法和语法不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个命令最多255字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢出，矩阵形式不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除以0，矩阵形式不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有逆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢出，矩阵形式不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算模块中函数之间可以相互调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢出，除0，矩阵形式不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存不足，修改或新建ans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵形式不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵形式不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能要调用modify</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +864,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -679,6 +899,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -702,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +938,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -998,530 +1229,635 @@
     <col min="1" max="1" width="51.5" customWidth="1"/>
     <col min="2" max="2" width="51.625" customWidth="1"/>
     <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="F9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="C18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -1530,61 +1866,198 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="1"/>
       <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
